--- a/e_shape_linux/Output/Model_output/DNP_2020_2021_v2_Interdependency_analysis_ranked.xlsx
+++ b/e_shape_linux/Output/Model_output/DNP_2020_2021_v2_Interdependency_analysis_ranked.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9326869794667032</v>
+        <v>0.9326869798749379</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9316109081232871</v>
+        <v>0.9316109075037068</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9269513932451307</v>
+        <v>0.9269513940259253</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9228448827621174</v>
+        <v>0.9228448818094266</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9177960637317463</v>
+        <v>0.917796063466778</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9160143183503223</v>
+        <v>0.9160143182567712</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9128161170483431</v>
+        <v>0.912816118733689</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9113862144413862</v>
+        <v>0.9113862138574251</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9108811135576735</v>
+        <v>0.9108811132032005</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9108122850599243</v>
+        <v>0.9108122857598965</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9082365434419031</v>
+        <v>0.9082365452217758</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9047334102956311</v>
+        <v>0.9047334111378024</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9041037458102335</v>
+        <v>0.9041037467019492</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.903947254877108</v>
+        <v>0.9039472543370707</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9022182118433801</v>
+        <v>0.9022182117676871</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8946377049526324</v>
+        <v>0.8946377048806259</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8910058072822583</v>
+        <v>0.8910058079509618</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8907753383249346</v>
+        <v>0.8907753404482895</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8894859827076591</v>
+        <v>0.8894859830943735</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8861515023680778</v>
+        <v>0.8861515033392726</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8851649865490319</v>
+        <v>0.8851649875285277</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8840132928963746</v>
+        <v>0.8840132952160067</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8823431200730942</v>
+        <v>0.8823431190244874</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8820820897779881</v>
+        <v>0.8820820912752583</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8816263254457452</v>
+        <v>0.8816263253390275</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8773020400639155</v>
+        <v>0.8773020418099752</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.877078271151706</v>
+        <v>0.8770782732788216</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8750433749898302</v>
+        <v>0.8750433769550379</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.8714367060600279</v>
+        <v>0.8714367072351094</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.8701445793084863</v>
+        <v>0.8701445791464996</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.8662557904783128</v>
+        <v>0.8662557904437702</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.8651393815797472</v>
+        <v>0.8651393824906939</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.8627520519672784</v>
+        <v>0.8627520570934226</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.8594005572617831</v>
+        <v>0.8594005567249133</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.8573454338809476</v>
+        <v>0.8573454371776592</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.8563582142397287</v>
+        <v>0.856358215817296</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.8544687900989112</v>
+        <v>0.8544687913049549</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.8521561738718721</v>
+        <v>0.852156174673744</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.8479324648774165</v>
+        <v>0.8479324658173999</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.8453374673807454</v>
+        <v>0.8453374692080819</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8436443503421502</v>
+        <v>0.8436443513736422</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.8434947595684181</v>
+        <v>0.8434947644641126</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.8433974492032458</v>
+        <v>0.8433974482447172</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.8430773560115562</v>
+        <v>0.8430773552393859</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.8419425420849651</v>
+        <v>0.8419425431739074</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.8418581103158141</v>
+        <v>0.8418581098388834</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.8255513239190011</v>
+        <v>0.8255513238924764</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.8243979963147422</v>
+        <v>0.8243979977066735</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.8211967049109081</v>
+        <v>0.8211967042793572</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.8209474347412421</v>
+        <v>0.820947435464026</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.8197571067152736</v>
+        <v>0.8197571051750105</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.8161099987013825</v>
+        <v>0.8161099980400803</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.8156307462488228</v>
+        <v>0.8156307458497453</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.8144260728962898</v>
+        <v>0.8144260722650831</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.8127750829476966</v>
+        <v>0.8127750844006345</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.8125982007190966</v>
+        <v>0.8125982022492407</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.808240441763512</v>
+        <v>0.8082404408351761</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.8070226194178617</v>
+        <v>0.8070226203538891</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.8059473837170202</v>
+        <v>0.8059473840106984</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.8042578413792459</v>
+        <v>0.8042578426549403</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.8022769985083206</v>
+        <v>0.8022769974406807</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.798853183</v>
+        <v>0.7988531829329696</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.7954356377443426</v>
+        <v>0.7954356416458044</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.7940102397019856</v>
+        <v>0.7940102418453622</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.7936144440142792</v>
+        <v>0.7936144464319033</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.7922526207266997</v>
+        <v>0.7922526230130823</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.7912473520576545</v>
+        <v>0.7912473505671151</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.7889767902313553</v>
+        <v>0.7889767937467251</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.7867795331945964</v>
+        <v>0.7867795326043052</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.7798880922508401</v>
+        <v>0.7798880933418574</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.770089559528672</v>
+        <v>0.7700895612177564</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.7697939605108245</v>
+        <v>0.7697939617546385</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.7689086118068433</v>
+        <v>0.7689086122386242</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.767774677352316</v>
+        <v>0.767774678982983</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.7670999242450557</v>
+        <v>0.7670999236278438</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.7646929495295126</v>
+        <v>0.7646929516657214</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.7632074170170494</v>
+        <v>0.7632074157158465</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.7619329298776665</v>
+        <v>0.7619329287301844</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.7619257047610384</v>
+        <v>0.7619257052305176</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.7608427423975791</v>
+        <v>0.7608427426280392</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.7600420458042573</v>
+        <v>0.7600420481092341</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.7590265435948358</v>
+        <v>0.7590265396035591</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.7583831962250527</v>
+        <v>0.7583831985796189</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.7554082119335245</v>
+        <v>0.7554082194400823</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.7509963010162485</v>
+        <v>0.7509963009744424</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.7496672434429982</v>
+        <v>0.7496672437651264</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.7432334219319832</v>
+        <v>0.7432334240091859</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.7430256069384764</v>
+        <v>0.7430256076653726</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.7394860769187629</v>
+        <v>0.7394860778616286</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.7356804603600259</v>
+        <v>0.7356804596991809</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.7356014262278312</v>
+        <v>0.7356014287364028</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.7301705529261835</v>
+        <v>0.7301705554743367</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.7271284461264422</v>
+        <v>0.7271284432103218</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.7254213777684416</v>
+        <v>0.7254213796478144</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.7251690482966803</v>
+        <v>0.7251690480616618</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.7201066335625509</v>
+        <v>0.7201066340333063</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.7156703590732904</v>
+        <v>0.7156703655099682</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.7127483688827447</v>
+        <v>0.7127483697196882</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.7088248846500882</v>
+        <v>0.7088248843201027</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.7083415294399237</v>
+        <v>0.7083415326273635</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.7076332536148978</v>
+        <v>0.707633254091142</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.7064664259794592</v>
+        <v>0.7064664232948681</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.7055080085293529</v>
+        <v>0.7055080160642517</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.7015946800327876</v>
+        <v>0.701594679496671</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.7012008323359438</v>
+        <v>0.7012008337293317</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.6978458822307541</v>
+        <v>0.6978458791325191</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.6967700196530245</v>
+        <v>0.6967700199214224</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.6943627199366352</v>
+        <v>0.6943627203477627</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.687805180055695</v>
+        <v>0.6878051784661177</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.6836534200733069</v>
+        <v>0.6836534182314836</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.683136738826601</v>
+        <v>0.6831367403317559</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.6820442973564513</v>
+        <v>0.6820442954669808</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.6815394281416525</v>
+        <v>0.6815394281322704</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.678107242220411</v>
+        <v>0.678107245096477</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.6775687132674275</v>
+        <v>0.6775687113502195</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.668631367298963</v>
+        <v>0.6686313663654272</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.6685861900440052</v>
+        <v>0.6685861874068353</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.6631267386211516</v>
+        <v>0.6631267376980561</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.6587630649335816</v>
+        <v>0.6587630644718302</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.6524786306743106</v>
+        <v>0.6524786300251634</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.6512294554019673</v>
+        <v>0.6512294624806245</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.6482150937216626</v>
+        <v>0.6482150944306884</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.6477383173625026</v>
+        <v>0.6477383170207967</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.6450792885615738</v>
+        <v>0.6450792871704581</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.6445519335072775</v>
+        <v>0.6445519336017574</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.6438338253316473</v>
+        <v>0.6438338237292891</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.6415621948785608</v>
+        <v>0.6415621947598291</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.6391589447551916</v>
+        <v>0.6391589449574718</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.6386972533684077</v>
+        <v>0.638697256629884</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.6375959031940954</v>
+        <v>0.6375959035499165</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.6370469156007647</v>
+        <v>0.6370469188314857</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.635631347677979</v>
+        <v>0.6356313442747719</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.6336155716175161</v>
+        <v>0.6336155803274088</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.6327947437186672</v>
+        <v>0.6327947523128038</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.6269788517503787</v>
+        <v>0.626978851757148</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.6266211830059368</v>
+        <v>0.6266211809353444</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.6264721314047885</v>
+        <v>0.6264721319771854</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.6261823690896562</v>
+        <v>0.6261823680812429</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.621600129542377</v>
+        <v>0.6216001277142169</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.62144246521631</v>
+        <v>0.6214424682952888</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.6126752212765643</v>
+        <v>0.612675225498014</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.6126081898496056</v>
+        <v>0.6126081879546288</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.6118045857825912</v>
+        <v>0.6118045867281633</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.6109113308263702</v>
+        <v>0.6109113292299896</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.6089839616947806</v>
+        <v>0.608983961825914</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.6049922102598624</v>
+        <v>0.6049922074894285</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.6015382792980056</v>
+        <v>0.6015382807892636</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.599534377627742</v>
+        <v>0.5995343778975057</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.599097079770089</v>
+        <v>0.5990970811291875</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.5978018700853993</v>
+        <v>0.5978018707041843</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.5971218859742379</v>
+        <v>0.5971218855045088</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.5936341925811228</v>
+        <v>0.5936342013352242</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.5932931672041674</v>
+        <v>0.5932931647568842</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.5842284572316212</v>
+        <v>0.5842284581088039</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.5811825747536534</v>
+        <v>0.5811825732685951</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.5805196642938889</v>
+        <v>0.5805196632904042</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.5795781675582701</v>
+        <v>0.5795781696143018</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.5750895015516456</v>
+        <v>0.5750895021290258</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.5730786136337434</v>
+        <v>0.5730786142804136</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.5701508566278461</v>
+        <v>0.5701508562051103</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.5671480320286796</v>
+        <v>0.5671480307469955</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.5670946462370844</v>
+        <v>0.5670946469661138</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.5647175835177849</v>
+        <v>0.5647175845680169</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.5589540030173139</v>
+        <v>0.558954001597408</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.558202888127986</v>
+        <v>0.5582028888675649</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.5579497478829257</v>
+        <v>0.5579497480975626</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.5567170835750783</v>
+        <v>0.556717083570491</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.5561463111773826</v>
+        <v>0.5561463145423764</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.5544120711930519</v>
+        <v>0.5544120712109755</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.5543130299881373</v>
+        <v>0.5543130262768966</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.5450718798781196</v>
+        <v>0.545071884066663</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.5445322254644612</v>
+        <v>0.5445322236784341</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.5439121470611348</v>
+        <v>0.543912146176122</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.5417974173771462</v>
+        <v>0.5417974169578165</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.5410078851282993</v>
+        <v>0.541007881821475</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.5409330867111202</v>
+        <v>0.5409330901562387</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.5399185946241859</v>
+        <v>0.5399185933667348</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.5386245805358895</v>
+        <v>0.5386245801607541</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.5323396395187561</v>
+        <v>0.5323396417521569</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.5264460170147722</v>
+        <v>0.5264460175906128</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.525839485989022</v>
+        <v>0.5258394859485286</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.5194569125199179</v>
+        <v>0.5194569120347916</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.5162866163228853</v>
+        <v>0.5162866171664028</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.5142204290060287</v>
+        <v>0.5142204254980172</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.5128399311583298</v>
+        <v>0.5128399300722114</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.5091251006390886</v>
+        <v>0.509125098185201</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.5071269435932277</v>
+        <v>0.507126943738218</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.5070508980163891</v>
+        <v>0.5070508959196609</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.5050057435549481</v>
+        <v>0.5050057419738174</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.503764068414695</v>
+        <v>0.5037640687451184</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.5035510220649124</v>
+        <v>0.5035510203705712</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.4991358274547946</v>
+        <v>0.4991358296220765</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.4970476547058534</v>
+        <v>0.4970476527038187</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.4947268124040239</v>
+        <v>0.4947268111817696</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.4925519459369566</v>
+        <v>0.4925519473163794</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.4922934106903205</v>
+        <v>0.4922934118793932</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.4895604062892593</v>
+        <v>0.4895604042442965</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.4845741687649174</v>
+        <v>0.4845741668007909</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.4836107904804619</v>
+        <v>0.4836107891248099</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.4817354770247818</v>
+        <v>0.4817354751349587</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.480010984149453</v>
+        <v>0.4800109845766531</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.4751887736795093</v>
+        <v>0.4751887717433307</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.4738331131057224</v>
+        <v>0.4738331117491167</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.4726591065300534</v>
+        <v>0.4726591050733002</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.4650494765492736</v>
+        <v>0.4650494788141608</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.4639761566472725</v>
+        <v>0.463976156433111</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.4605930709508156</v>
+        <v>0.4605930727792891</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.4601327383056559</v>
+        <v>0.4601327363196299</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.4583111073659268</v>
+        <v>0.4583111089307698</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.4543456822261324</v>
+        <v>0.4543456795191844</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.452573513708304</v>
+        <v>0.452573514880736</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.4510968551291077</v>
+        <v>0.4510968534956991</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.4503925901714003</v>
+        <v>0.4503925891146816</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.4482874815471526</v>
+        <v>0.4482874934989828</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.4474674636213443</v>
+        <v>0.4474674619550804</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.4455120816189878</v>
+        <v>0.4455120791465826</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.4434312606960629</v>
+        <v>0.4434312585994835</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.441301917393425</v>
+        <v>0.4413019136572028</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.4412204816464003</v>
+        <v>0.4412204760819486</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.4401416831302339</v>
+        <v>0.4401416824879982</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.4384003309102799</v>
+        <v>0.4384003305306001</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.4382203549561375</v>
+        <v>0.4382203545215451</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.4356067078800561</v>
+        <v>0.4356067090269595</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.4344486578211942</v>
+        <v>0.4344486706441592</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.4337187431765464</v>
+        <v>0.4337187427909418</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.4328792232873042</v>
+        <v>0.4328792199952761</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.4310577296206905</v>
+        <v>0.4310577304365812</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.4308545363336745</v>
+        <v>0.4308545383878428</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.4243489087511207</v>
+        <v>0.4243489069859668</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.4234836308409332</v>
+        <v>0.4234836356015758</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.4234780022844227</v>
+        <v>0.4234780016106867</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.4181913942650011</v>
+        <v>0.4181913927287007</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.4105259290047836</v>
+        <v>0.410525928064071</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.4055583961791246</v>
+        <v>0.4055583945198966</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.4044547174825439</v>
+        <v>0.404454722941805</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.4035178218916695</v>
+        <v>0.4035178207195293</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.4022643287597317</v>
+        <v>0.4022643274271607</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.4016016774897197</v>
+        <v>0.4016016785626219</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.3992949170631484</v>
+        <v>0.3992949173354871</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.3959827035608994</v>
+        <v>0.3959827006592418</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.3918555647697801</v>
+        <v>0.3918555644003794</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.3917959468256444</v>
+        <v>0.3917959477620082</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.3894533586103389</v>
+        <v>0.38945335757368</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.388097114961367</v>
+        <v>0.3880971137330937</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.3859142377132321</v>
+        <v>0.3859142364117701</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.3858498427706457</v>
+        <v>0.3858498420991083</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.3816659788503028</v>
+        <v>0.3816659799423845</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.3790400268249974</v>
+        <v>0.3790400247375477</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.3779650872678805</v>
+        <v>0.3779650866596468</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.3779277779817345</v>
+        <v>0.3779277768460163</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.377712111354373</v>
+        <v>0.3777121100790912</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.3773611408251886</v>
+        <v>0.377361140507779</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.3769719916514545</v>
+        <v>0.3769719933311497</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.3752055387998526</v>
+        <v>0.3752055380762604</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.3732703088953381</v>
+        <v>0.3732703075991883</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.3732011397760339</v>
+        <v>0.3732011381117082</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.3694759902328282</v>
+        <v>0.3694759883578468</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.367333051462194</v>
+        <v>0.3673330498666049</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.3658513232825963</v>
+        <v>0.3658513217729154</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.3633849945478992</v>
+        <v>0.3633849933300378</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.3577126913110735</v>
+        <v>0.3577126987380763</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.356596743371844</v>
+        <v>0.3565967431690205</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.3556805238870959</v>
+        <v>0.3556805236867415</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.354602410788855</v>
+        <v>0.3546024109417476</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.3532816949760991</v>
+        <v>0.3532816946473535</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.3528308126007375</v>
+        <v>0.3528308123317571</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.3527243085138891</v>
+        <v>0.3527243150556101</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.3495929875258066</v>
+        <v>0.3495929871538225</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.3491165829000857</v>
+        <v>0.349116583009654</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.3490535292451997</v>
+        <v>0.3490535282631782</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.3485435406273824</v>
+        <v>0.3485435437964645</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.3484163006381662</v>
+        <v>0.3484163007994174</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.3479940830834561</v>
+        <v>0.3479940815662222</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.3472765731871254</v>
+        <v>0.3472765714411725</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.3464190591098428</v>
+        <v>0.3464190584788312</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.3421356238300247</v>
+        <v>0.3421356247191376</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.3409704991092863</v>
+        <v>0.3409704979622575</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.3391899972865382</v>
+        <v>0.3391899959170696</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.328829961185432</v>
+        <v>0.3288299597721514</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.3252632635433697</v>
+        <v>0.3252632624048848</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.3251422534114392</v>
+        <v>0.3251422526417757</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.3234081433403628</v>
+        <v>0.3234081440470353</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.3230274916546654</v>
+        <v>0.3230274901687953</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.3162718798404987</v>
+        <v>0.3162718794559236</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.31574977515299</v>
+        <v>0.3157497741692194</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.3136588576098384</v>
+        <v>0.3136588560963144</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.3130014269623571</v>
+        <v>0.3130014252171026</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.3125866242938562</v>
+        <v>0.3125866319084497</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.3122695327608428</v>
+        <v>0.3122695336506351</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.3104548182479</v>
+        <v>0.3104548177068026</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.3097399399914398</v>
+        <v>0.3097399387166895</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.3074107682992169</v>
+        <v>0.3074107689202185</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.307206289902044</v>
+        <v>0.3072062879497805</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.3051421881642883</v>
+        <v>0.3051421874890655</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.3044851412305514</v>
+        <v>0.3044851407913022</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.3035572482898939</v>
+        <v>0.3035572477669569</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.3009459080773072</v>
+        <v>0.3009459076281956</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.3000259001551966</v>
+        <v>0.3000259095013117</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.2992435043929526</v>
+        <v>0.2992435038672858</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.2987955245587592</v>
+        <v>0.2987955224869414</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.298755268601592</v>
+        <v>0.2987552664407406</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.2962840578644965</v>
+        <v>0.2962840569468557</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.2961151648078137</v>
+        <v>0.2961151634989418</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.2949754883124421</v>
+        <v>0.2949754873998744</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.2908380982235038</v>
+        <v>0.2908380985917715</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.2905045518295966</v>
+        <v>0.2905045495844285</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.2878642570853581</v>
+        <v>0.2878642566399375</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.2872705790318075</v>
+        <v>0.2872705782626614</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.2858542574610958</v>
+        <v>0.2858542563413596</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.2842037537214883</v>
+        <v>0.2842037543995559</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.2831644665947791</v>
+        <v>0.2831644665454653</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.2799595714411769</v>
+        <v>0.2799595678222149</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.2773215781750555</v>
+        <v>0.2773215778140423</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.2765886945601376</v>
+        <v>0.2765886926658009</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.2732252533246956</v>
+        <v>0.2732252527263662</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.2730865857434269</v>
+        <v>0.2730865839066425</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.2714805306589384</v>
+        <v>0.2714805285238366</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.2705695600994493</v>
+        <v>0.2705695596922091</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.2703224652765207</v>
+        <v>0.2703224620345011</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.2700954071081756</v>
+        <v>0.2700954140868112</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.2678633886403234</v>
+        <v>0.2678633871702071</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.267564857964379</v>
+        <v>0.2675648570051645</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.2667220180127839</v>
+        <v>0.266722017770201</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.2644127158305346</v>
+        <v>0.2644127144535486</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.2637471427194594</v>
+        <v>0.2637471439896225</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.2621065053085941</v>
+        <v>0.2621065042272575</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.2612043410757727</v>
+        <v>0.2612043391028309</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.2596264008696609</v>
+        <v>0.2596263997883449</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.2593747334526423</v>
+        <v>0.2593747322697659</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.257027177566095</v>
+        <v>0.2570271761136229</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.2542471961366495</v>
+        <v>0.2542471954371167</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.2520083607746836</v>
+        <v>0.2520083615563073</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.2513937629236195</v>
+        <v>0.2513937620913366</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.2510266941975068</v>
+        <v>0.2510266940852206</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.2503264614667158</v>
+        <v>0.2503264569750699</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.2499838046598315</v>
+        <v>0.2499838029361172</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.24959533969346</v>
+        <v>0.2495953365201164</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0.2493106766359353</v>
+        <v>0.2493106760199112</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0.2484958676702942</v>
+        <v>0.2484958728409245</v>
       </c>
     </row>
     <row r="342">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.2472469967281924</v>
+        <v>0.2472469978540161</v>
       </c>
     </row>
     <row r="343">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0.2450797830064474</v>
+        <v>0.2450797815211465</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.2448443372892004</v>
+        <v>0.2448443363704107</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0.2399471545734679</v>
+        <v>0.2399471562179669</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.2398196824385523</v>
+        <v>0.2398196817570161</v>
       </c>
     </row>
     <row r="347">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0.2396900259822855</v>
+        <v>0.239690029660817</v>
       </c>
     </row>
     <row r="348">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0.2392103938042615</v>
+        <v>0.2392103936432337</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0.2377766441753362</v>
+        <v>0.2377766438486568</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0.2377329602949474</v>
+        <v>0.2377329595718337</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0.2368677520979472</v>
+        <v>0.2368677530155925</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0.2362845968691674</v>
+        <v>0.2362845943612908</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0.2326882955133102</v>
+        <v>0.2326882951814294</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.2325027051746588</v>
+        <v>0.2325027047972613</v>
       </c>
     </row>
     <row r="355">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0.2324478930425977</v>
+        <v>0.2324478932383309</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0.2319500935989889</v>
+        <v>0.2319501043684951</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.227358741270934</v>
+        <v>0.2273587420664442</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0.22693388003946</v>
+        <v>0.2269338803954059</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0.225952732159476</v>
+        <v>0.2259527321301388</v>
       </c>
     </row>
     <row r="360">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0.2231557999796701</v>
+        <v>0.2231557994637128</v>
       </c>
     </row>
     <row r="361">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0.2230391038775088</v>
+        <v>0.2230391031799867</v>
       </c>
     </row>
     <row r="362">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0.2226698288919103</v>
+        <v>0.2226698280154127</v>
       </c>
     </row>
     <row r="363">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0.2221938986272247</v>
+        <v>0.2221938983905059</v>
       </c>
     </row>
     <row r="364">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0.2217054264924192</v>
+        <v>0.2217054260303364</v>
       </c>
     </row>
     <row r="365">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0.2209800515358021</v>
+        <v>0.2209800522405343</v>
       </c>
     </row>
     <row r="366">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0.220656629581527</v>
+        <v>0.2206566284513317</v>
       </c>
     </row>
     <row r="367">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0.2140612624671287</v>
+        <v>0.2140612611997101</v>
       </c>
     </row>
     <row r="368">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0.2139033648715477</v>
+        <v>0.2139033639246813</v>
       </c>
     </row>
     <row r="369">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0.2119621216848028</v>
+        <v>0.2119621209114275</v>
       </c>
     </row>
     <row r="370">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0.2111937741367284</v>
+        <v>0.2111937745265796</v>
       </c>
     </row>
     <row r="371">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0.2107548325742913</v>
+        <v>0.2107548311903338</v>
       </c>
     </row>
     <row r="372">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0.2105257449700236</v>
+        <v>0.2105257447107035</v>
       </c>
     </row>
     <row r="373">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0.2102313677356553</v>
+        <v>0.2102313674950122</v>
       </c>
     </row>
     <row r="374">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0.2101650771655765</v>
+        <v>0.2101650758010104</v>
       </c>
     </row>
     <row r="375">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0.210145656617156</v>
+        <v>0.2101456575300075</v>
       </c>
     </row>
     <row r="376">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0.2091329268826141</v>
+        <v>0.2091329265953699</v>
       </c>
     </row>
     <row r="377">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0.2079877931125246</v>
+        <v>0.2079877917698782</v>
       </c>
     </row>
     <row r="378">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0.2078564150418293</v>
+        <v>0.2078564154015827</v>
       </c>
     </row>
     <row r="379">
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0.2063833882876842</v>
+        <v>0.2063833884080606</v>
       </c>
     </row>
     <row r="380">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0.2039789966331405</v>
+        <v>0.2039789964692684</v>
       </c>
     </row>
     <row r="381">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0.203759139736262</v>
+        <v>0.2037591409754423</v>
       </c>
     </row>
     <row r="382">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0.2037141667242752</v>
+        <v>0.2037141734199346</v>
       </c>
     </row>
     <row r="383">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0.2036908745270092</v>
+        <v>0.2036908744585477</v>
       </c>
     </row>
     <row r="384">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0.202515220017848</v>
+        <v>0.2025152191285665</v>
       </c>
     </row>
     <row r="385">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0.2020861099946969</v>
+        <v>0.2020861090913502</v>
       </c>
     </row>
     <row r="386">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0.1991726073088091</v>
+        <v>0.1991726065384594</v>
       </c>
     </row>
     <row r="387">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0.1986011023574518</v>
+        <v>0.1986011013636111</v>
       </c>
     </row>
     <row r="388">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0.1982362439167526</v>
+        <v>0.1982362433680391</v>
       </c>
     </row>
     <row r="389">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0.196804086487644</v>
+        <v>0.1968040854961931</v>
       </c>
     </row>
     <row r="390">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0.1964113900553341</v>
+        <v>0.1964113903471909</v>
       </c>
     </row>
     <row r="391">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0.1960687700016632</v>
+        <v>0.1960687687834993</v>
       </c>
     </row>
     <row r="392">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0.1959525662038813</v>
+        <v>0.1959525654736245</v>
       </c>
     </row>
     <row r="393">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0.1957196868446753</v>
+        <v>0.1957196879681073</v>
       </c>
     </row>
     <row r="394">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0.1953470489900292</v>
+        <v>0.1953470441351786</v>
       </c>
     </row>
     <row r="395">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0.1950672407010709</v>
+        <v>0.1950672417696659</v>
       </c>
     </row>
     <row r="396">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0.1943847318053926</v>
+        <v>0.1943847294397223</v>
       </c>
     </row>
     <row r="397">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0.1930902854635625</v>
+        <v>0.1930902845711839</v>
       </c>
     </row>
     <row r="398">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0.1924250599382296</v>
+        <v>0.1924250587232521</v>
       </c>
     </row>
     <row r="399">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0.1915747019777849</v>
+        <v>0.1915747000030802</v>
       </c>
     </row>
     <row r="400">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0.1910896870918587</v>
+        <v>0.1910896867458959</v>
       </c>
     </row>
     <row r="401">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0.1908824376545494</v>
+        <v>0.1908824372940153</v>
       </c>
     </row>
     <row r="402">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0.188403903122212</v>
+        <v>0.1884039072346051</v>
       </c>
     </row>
     <row r="403">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0.1881564273138876</v>
+        <v>0.1881564265195375</v>
       </c>
     </row>
     <row r="404">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0.1879916297524349</v>
+        <v>0.1879916294917456</v>
       </c>
     </row>
     <row r="405">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0.1878725011880245</v>
+        <v>0.187872501849598</v>
       </c>
     </row>
     <row r="406">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0.1871752620379354</v>
+        <v>0.1871752610381831</v>
       </c>
     </row>
     <row r="407">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0.1854506069163338</v>
+        <v>0.185450607555639</v>
       </c>
     </row>
     <row r="408">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0.1832851088771949</v>
+        <v>0.1832851064214054</v>
       </c>
     </row>
     <row r="409">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0.1818551447241623</v>
+        <v>0.1818551444191933</v>
       </c>
     </row>
     <row r="410">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0.1814004859527585</v>
+        <v>0.1814004851649342</v>
       </c>
     </row>
     <row r="411">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0.1809877747880752</v>
+        <v>0.1809877735253191</v>
       </c>
     </row>
     <row r="412">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0.1809556451546319</v>
+        <v>0.1809556452296714</v>
       </c>
     </row>
     <row r="413">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0.1787805303112312</v>
+        <v>0.1787805316196666</v>
       </c>
     </row>
     <row r="414">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0.1778764667811801</v>
+        <v>0.1778764671495613</v>
       </c>
     </row>
     <row r="415">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0.1751620848307874</v>
+        <v>0.1751620837032785</v>
       </c>
     </row>
     <row r="416">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0.1745040133458341</v>
+        <v>0.1745040141406357</v>
       </c>
     </row>
     <row r="417">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0.1735421738620316</v>
+        <v>0.1735421736868769</v>
       </c>
     </row>
     <row r="418">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0.1715686314166366</v>
+        <v>0.1715686318808592</v>
       </c>
     </row>
     <row r="419">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0.171382343216367</v>
+        <v>0.1713823432822315</v>
       </c>
     </row>
     <row r="420">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0.1711463392420512</v>
+        <v>0.1711463369196124</v>
       </c>
     </row>
     <row r="421">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0.1702966909428717</v>
+        <v>0.1702966899470506</v>
       </c>
     </row>
     <row r="422">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0.1694297789776524</v>
+        <v>0.1694297823350178</v>
       </c>
     </row>
     <row r="423">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0.1684131632559726</v>
+        <v>0.1684131629282129</v>
       </c>
     </row>
     <row r="424">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0.1682796710106812</v>
+        <v>0.1682796698488063</v>
       </c>
     </row>
     <row r="425">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0.1680753478094412</v>
+        <v>0.1680753475297818</v>
       </c>
     </row>
     <row r="426">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0.1649517057857275</v>
+        <v>0.1649517047252278</v>
       </c>
     </row>
     <row r="427">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0.163330140809964</v>
+        <v>0.163330140547134</v>
       </c>
     </row>
     <row r="428">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0.1620570266353846</v>
+        <v>0.162057025935159</v>
       </c>
     </row>
     <row r="429">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0.1603099691569364</v>
+        <v>0.1603099682871373</v>
       </c>
     </row>
     <row r="430">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0.1599672302300733</v>
+        <v>0.1599672297024584</v>
       </c>
     </row>
     <row r="431">
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0.1590069675521182</v>
+        <v>0.1590069670599065</v>
       </c>
     </row>
     <row r="432">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0.1586523241000779</v>
+        <v>0.1586523240530996</v>
       </c>
     </row>
     <row r="433">
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0.1579926954242744</v>
+        <v>0.1579926944925482</v>
       </c>
     </row>
     <row r="434">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0.1565944460845519</v>
+        <v>0.1565944454396849</v>
       </c>
     </row>
     <row r="435">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0.1561944412187416</v>
+        <v>0.1561944422256238</v>
       </c>
     </row>
     <row r="436">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0.1560423610461609</v>
+        <v>0.1560423623716645</v>
       </c>
     </row>
     <row r="437">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0.1545144625155625</v>
+        <v>0.154514466378621</v>
       </c>
     </row>
     <row r="438">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0.1510328439582546</v>
+        <v>0.1510328434025682</v>
       </c>
     </row>
     <row r="439">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0.150107705889216</v>
+        <v>0.1501077064112844</v>
       </c>
     </row>
     <row r="440">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0.1478977562133497</v>
+        <v>0.1478977557108175</v>
       </c>
     </row>
     <row r="441">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0.1476098884207261</v>
+        <v>0.1476098868844237</v>
       </c>
     </row>
     <row r="442">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0.144124416202709</v>
+        <v>0.1441244165822902</v>
       </c>
     </row>
     <row r="443">
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0.1436174075051252</v>
+        <v>0.1436174059744301</v>
       </c>
     </row>
     <row r="444">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0.1417557815450904</v>
+        <v>0.1417557896489598</v>
       </c>
     </row>
     <row r="445">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0.1401688513785932</v>
+        <v>0.1401688515311224</v>
       </c>
     </row>
     <row r="446">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0.1395693705322003</v>
+        <v>0.139569375512661</v>
       </c>
     </row>
     <row r="447">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0.1393381580295017</v>
+        <v>0.1393381568121974</v>
       </c>
     </row>
     <row r="448">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0.1381544911079831</v>
+        <v>0.1381544916380821</v>
       </c>
     </row>
     <row r="449">
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0.1379116934898998</v>
+        <v>0.1379116933658678</v>
       </c>
     </row>
     <row r="450">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0.1368580332916251</v>
+        <v>0.136858028234628</v>
       </c>
     </row>
     <row r="451">
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0.1349854716607744</v>
+        <v>0.1349854697569768</v>
       </c>
     </row>
     <row r="452">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0.1348000224898184</v>
+        <v>0.1348000215852053</v>
       </c>
     </row>
     <row r="453">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0.1346039643244345</v>
+        <v>0.1346039639378761</v>
       </c>
     </row>
     <row r="454">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0.1337164803420773</v>
+        <v>0.1337164864702867</v>
       </c>
     </row>
     <row r="455">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0.132810540139774</v>
+        <v>0.1328105394206151</v>
       </c>
     </row>
     <row r="456">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0.1323732850187808</v>
+        <v>0.1323732859626194</v>
       </c>
     </row>
     <row r="457">
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0.1313365200852108</v>
+        <v>0.1313365196893877</v>
       </c>
     </row>
     <row r="458">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0.1310599555957058</v>
+        <v>0.1310599564060831</v>
       </c>
     </row>
     <row r="459">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0.1309543961396708</v>
+        <v>0.1309543937330164</v>
       </c>
     </row>
     <row r="460">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>0.1302486352845911</v>
+        <v>0.1302486350247601</v>
       </c>
     </row>
     <row r="461">
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0.1299199826289868</v>
+        <v>0.1299199820688811</v>
       </c>
     </row>
     <row r="462">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0.129748532091535</v>
+        <v>0.129748530107824</v>
       </c>
     </row>
     <row r="463">
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0.1294914510355309</v>
+        <v>0.1294914498694331</v>
       </c>
     </row>
     <row r="464">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0.1291858332585265</v>
+        <v>0.1291858356566627</v>
       </c>
     </row>
     <row r="465">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0.1279210000856777</v>
+        <v>0.1279210010149223</v>
       </c>
     </row>
     <row r="466">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0.1271628032893339</v>
+        <v>0.1271628037488652</v>
       </c>
     </row>
     <row r="467">
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0.126876936183541</v>
+        <v>0.1268769376762535</v>
       </c>
     </row>
     <row r="468">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0.1264805440995557</v>
+        <v>0.1264805433734423</v>
       </c>
     </row>
     <row r="469">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0.1249112701621018</v>
+        <v>0.1249112696386137</v>
       </c>
     </row>
     <row r="470">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0.122312023463436</v>
+        <v>0.1223120225550787</v>
       </c>
     </row>
     <row r="471">
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0.1214718609389078</v>
+        <v>0.1214718573566052</v>
       </c>
     </row>
     <row r="472">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0.1211010395909649</v>
+        <v>0.1211010392559587</v>
       </c>
     </row>
     <row r="473">
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0.1209796555231242</v>
+        <v>0.120979655839683</v>
       </c>
     </row>
     <row r="474">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0.1204570927471133</v>
+        <v>0.1204570915695111</v>
       </c>
     </row>
     <row r="475">
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0.1200663992698404</v>
+        <v>0.1200663981729366</v>
       </c>
     </row>
     <row r="476">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0.1188823719103232</v>
+        <v>0.1188823714477646</v>
       </c>
     </row>
     <row r="477">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0.1188129966141838</v>
+        <v>0.1188129967577853</v>
       </c>
     </row>
     <row r="478">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0.1182380603995194</v>
+        <v>0.1182380600722396</v>
       </c>
     </row>
     <row r="479">
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0.1178385102820411</v>
+        <v>0.1178385117319644</v>
       </c>
     </row>
     <row r="480">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0.1178014279882576</v>
+        <v>0.1178014268815366</v>
       </c>
     </row>
     <row r="481">
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0.1167577514624042</v>
+        <v>0.1167577512989412</v>
       </c>
     </row>
     <row r="482">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0.1157134877459144</v>
+        <v>0.1157134867684266</v>
       </c>
     </row>
     <row r="483">
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0.1156987243330303</v>
+        <v>0.1156987239279153</v>
       </c>
     </row>
     <row r="484">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0.1156682149852954</v>
+        <v>0.1156682159338967</v>
       </c>
     </row>
     <row r="485">
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0.1141810990632069</v>
+        <v>0.1141810979819162</v>
       </c>
     </row>
     <row r="486">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0.1138790840126128</v>
+        <v>0.113879084748548</v>
       </c>
     </row>
     <row r="487">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0.1132297981928155</v>
+        <v>0.1132297973670277</v>
       </c>
     </row>
     <row r="488">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>0.1127213376646183</v>
+        <v>0.112721337760851</v>
       </c>
     </row>
     <row r="489">
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0.1113564168639896</v>
+        <v>0.1113564162943223</v>
       </c>
     </row>
     <row r="490">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0.1103788149800928</v>
+        <v>0.1103788145340545</v>
       </c>
     </row>
     <row r="491">
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0.1099570293009905</v>
+        <v>0.1099570281661215</v>
       </c>
     </row>
     <row r="492">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0.1094364641367189</v>
+        <v>0.1094364634530884</v>
       </c>
     </row>
     <row r="493">
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0.1079899885721794</v>
+        <v>0.10798998804894</v>
       </c>
     </row>
     <row r="494">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0.1078661088489384</v>
+        <v>0.1078661095075804</v>
       </c>
     </row>
     <row r="495">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0.1069833921522165</v>
+        <v>0.1069833951348567</v>
       </c>
     </row>
     <row r="496">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0.106779393856262</v>
+        <v>0.1067793950492531</v>
       </c>
     </row>
     <row r="497">
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0.1050928808120247</v>
+        <v>0.1050928802440472</v>
       </c>
     </row>
     <row r="498">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>0.10471525014077</v>
+        <v>0.104715248389449</v>
       </c>
     </row>
     <row r="499">
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0.1036198242515474</v>
+        <v>0.1036198248838538</v>
       </c>
     </row>
     <row r="500">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>0.1027307662386348</v>
+        <v>0.1027307706243444</v>
       </c>
     </row>
     <row r="501">
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0.102353577008071</v>
+        <v>0.1023535771088051</v>
       </c>
     </row>
     <row r="502">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0.1017207418044178</v>
+        <v>0.1017207412482344</v>
       </c>
     </row>
     <row r="503">
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0.1016190302275499</v>
+        <v>0.1016190291836011</v>
       </c>
     </row>
     <row r="504">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0.100582737381782</v>
+        <v>0.1005827373775994</v>
       </c>
     </row>
     <row r="505">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0.1004986836834189</v>
+        <v>0.1004986832685683</v>
       </c>
     </row>
     <row r="506">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0.1003404561593355</v>
+        <v>0.1003404553371557</v>
       </c>
     </row>
     <row r="507">
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0.09915474294927165</v>
+        <v>0.09915474394485675</v>
       </c>
     </row>
     <row r="508">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0.09809518085792132</v>
+        <v>0.09809518090587355</v>
       </c>
     </row>
     <row r="509">
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0.09807189588950933</v>
+        <v>0.09807189567805434</v>
       </c>
     </row>
     <row r="510">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0.09790988667673677</v>
+        <v>0.09790988737892237</v>
       </c>
     </row>
     <row r="511">
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0.09713768898075135</v>
+        <v>0.09713769002413346</v>
       </c>
     </row>
     <row r="512">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0.09710034430693895</v>
+        <v>0.09710034353702089</v>
       </c>
     </row>
     <row r="513">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0.09597829491494529</v>
+        <v>0.09597829596643864</v>
       </c>
     </row>
     <row r="514">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0.09586870821676473</v>
+        <v>0.09586870684593654</v>
       </c>
     </row>
     <row r="515">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>0.09429744612744187</v>
+        <v>0.09429744738684602</v>
       </c>
     </row>
     <row r="516">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0.09349809839297422</v>
+        <v>0.09349809690667214</v>
       </c>
     </row>
     <row r="517">
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0.09338947718384025</v>
+        <v>0.09338947757544676</v>
       </c>
     </row>
     <row r="518">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>0.09320499457222349</v>
+        <v>0.09320499590912662</v>
       </c>
     </row>
     <row r="519">
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>0.09216738525824902</v>
+        <v>0.0921673848653429</v>
       </c>
     </row>
     <row r="520">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0.0920179551580504</v>
+        <v>0.09201795545366206</v>
       </c>
     </row>
     <row r="521">
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0.09173232901604732</v>
+        <v>0.09173232811757116</v>
       </c>
     </row>
     <row r="522">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0.08980819101985542</v>
+        <v>0.08980819266896718</v>
       </c>
     </row>
     <row r="523">
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0.08974553514483603</v>
+        <v>0.08974553489620979</v>
       </c>
     </row>
     <row r="524">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0.08948520974591682</v>
+        <v>0.08948520968216993</v>
       </c>
     </row>
     <row r="525">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0.08805447565351852</v>
+        <v>0.08805447564860738</v>
       </c>
     </row>
     <row r="526">
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0.0878092304694654</v>
+        <v>0.08780923140347401</v>
       </c>
     </row>
     <row r="527">
@@ -5702,7 +5702,7 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0.08752787637474452</v>
+        <v>0.08752787615682157</v>
       </c>
     </row>
     <row r="528">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>0.08751017868089019</v>
+        <v>0.08751018171383144</v>
       </c>
     </row>
     <row r="529">
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>0.08653593317370432</v>
+        <v>0.08653593278105533</v>
       </c>
     </row>
     <row r="530">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>0.08471871197834155</v>
+        <v>0.08471871127120047</v>
       </c>
     </row>
     <row r="531">
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>0.08448984509900048</v>
+        <v>0.08448984814426889</v>
       </c>
     </row>
     <row r="532">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0.08403686181867194</v>
+        <v>0.08403686508323517</v>
       </c>
     </row>
     <row r="533">
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0.08384805533780357</v>
+        <v>0.08384805542642826</v>
       </c>
     </row>
     <row r="534">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>0.0826372876592104</v>
+        <v>0.08263728378453697</v>
       </c>
     </row>
     <row r="535">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="B535" t="n">
-        <v>0.08174153565531921</v>
+        <v>0.08174153509169181</v>
       </c>
     </row>
     <row r="536">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0.08116955963677933</v>
+        <v>0.08116955950274794</v>
       </c>
     </row>
     <row r="537">
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0.07984589884785871</v>
+        <v>0.07984589917869084</v>
       </c>
     </row>
     <row r="538">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0.07758119196154489</v>
+        <v>0.07758119194853355</v>
       </c>
     </row>
     <row r="539">
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0.07734198404506455</v>
+        <v>0.07734198356136819</v>
       </c>
     </row>
     <row r="540">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>0.07604505116099425</v>
+        <v>0.07604505106496832</v>
       </c>
     </row>
     <row r="541">
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0.07603272226506509</v>
+        <v>0.07603272122158154</v>
       </c>
     </row>
     <row r="542">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>0.07551172191114384</v>
+        <v>0.07551172144282317</v>
       </c>
     </row>
     <row r="543">
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0.07535194745769482</v>
+        <v>0.07535194694868486</v>
       </c>
     </row>
     <row r="544">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="B544" t="n">
-        <v>0.07534034163351755</v>
+        <v>0.07534034110096544</v>
       </c>
     </row>
     <row r="545">
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0.07332225102088449</v>
+        <v>0.07332225059000518</v>
       </c>
     </row>
     <row r="546">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="B546" t="n">
-        <v>0.07291742862942883</v>
+        <v>0.07291742760117759</v>
       </c>
     </row>
     <row r="547">
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0.07213576383613801</v>
+        <v>0.07213576299494456</v>
       </c>
     </row>
     <row r="548">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0.07187625098372749</v>
+        <v>0.07187625099778165</v>
       </c>
     </row>
     <row r="549">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0.07123000065822299</v>
+        <v>0.07123000120748307</v>
       </c>
     </row>
     <row r="550">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>0.07119171775575986</v>
+        <v>0.07119171709784956</v>
       </c>
     </row>
     <row r="551">
@@ -5942,7 +5942,7 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>0.07085494031750059</v>
+        <v>0.07085494095980523</v>
       </c>
     </row>
     <row r="552">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="B552" t="n">
-        <v>0.07037597921691918</v>
+        <v>0.07037597794802208</v>
       </c>
     </row>
     <row r="553">
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0.06999505849073573</v>
+        <v>0.06999505892702856</v>
       </c>
     </row>
     <row r="554">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0.0691108460762838</v>
+        <v>0.06911084550137717</v>
       </c>
     </row>
     <row r="555">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0.06869476363766296</v>
+        <v>0.06869476425594268</v>
       </c>
     </row>
     <row r="556">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0.06869259420021155</v>
+        <v>0.06869259336011681</v>
       </c>
     </row>
     <row r="557">
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="B557" t="n">
-        <v>0.06829437442635282</v>
+        <v>0.06829437300218015</v>
       </c>
     </row>
     <row r="558">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="B558" t="n">
-        <v>0.06704535507018847</v>
+        <v>0.06704535585217325</v>
       </c>
     </row>
     <row r="559">
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>0.06689219108291734</v>
+        <v>0.06689218971632596</v>
       </c>
     </row>
     <row r="560">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0.06637952104807854</v>
+        <v>0.06637952112264545</v>
       </c>
     </row>
     <row r="561">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0.06635410515448674</v>
+        <v>0.06635410477973563</v>
       </c>
     </row>
     <row r="562">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0.06599477109307617</v>
+        <v>0.06599477170316387</v>
       </c>
     </row>
     <row r="563">
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="B563" t="n">
-        <v>0.06522047633785902</v>
+        <v>0.06522047583642776</v>
       </c>
     </row>
     <row r="564">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0.06363953777998309</v>
+        <v>0.06363953739439927</v>
       </c>
     </row>
     <row r="565">
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="B565" t="n">
-        <v>0.06214101792568587</v>
+        <v>0.06214101837571566</v>
       </c>
     </row>
     <row r="566">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0.06189793738155571</v>
+        <v>0.06189793839601643</v>
       </c>
     </row>
     <row r="567">
@@ -6102,7 +6102,7 @@
         </is>
       </c>
       <c r="B567" t="n">
-        <v>0.0617644590718835</v>
+        <v>0.06176445835682589</v>
       </c>
     </row>
     <row r="568">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0.06138255948041442</v>
+        <v>0.06138255851552245</v>
       </c>
     </row>
     <row r="569">
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0.06136207051438151</v>
+        <v>0.06136207047959454</v>
       </c>
     </row>
     <row r="570">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="B570" t="n">
-        <v>0.06116338925247476</v>
+        <v>0.06116338769682962</v>
       </c>
     </row>
     <row r="571">
@@ -6142,7 +6142,7 @@
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0.06066724621022496</v>
+        <v>0.06066724516692092</v>
       </c>
     </row>
     <row r="572">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>0.05992062203358976</v>
+        <v>0.05992062300443691</v>
       </c>
     </row>
     <row r="573">
@@ -6162,7 +6162,7 @@
         </is>
       </c>
       <c r="B573" t="n">
-        <v>0.05947411233165344</v>
+        <v>0.05947411305966294</v>
       </c>
     </row>
     <row r="574">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>0.05926126995732067</v>
+        <v>0.05926126934287657</v>
       </c>
     </row>
     <row r="575">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="B575" t="n">
-        <v>0.05790738305286727</v>
+        <v>0.05790738698475418</v>
       </c>
     </row>
     <row r="576">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="B576" t="n">
-        <v>0.05734949123303033</v>
+        <v>0.05734949220671651</v>
       </c>
     </row>
     <row r="577">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0.05545676380797081</v>
+        <v>0.05545676359756887</v>
       </c>
     </row>
     <row r="578">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0.05542024935782959</v>
+        <v>0.05542024936507553</v>
       </c>
     </row>
     <row r="579">
@@ -6222,7 +6222,7 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>0.05531408664805955</v>
+        <v>0.05531408669635073</v>
       </c>
     </row>
     <row r="580">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0.05508017392136066</v>
+        <v>0.05508017431441667</v>
       </c>
     </row>
     <row r="581">
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0.05500455023252343</v>
+        <v>0.05500455200034636</v>
       </c>
     </row>
     <row r="582">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="B582" t="n">
-        <v>0.05324520945485735</v>
+        <v>0.05324520913388231</v>
       </c>
     </row>
     <row r="583">
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="B583" t="n">
-        <v>0.0530093661034559</v>
+        <v>0.05300936623327153</v>
       </c>
     </row>
     <row r="584">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0.05276095496608277</v>
+        <v>0.05276095430620847</v>
       </c>
     </row>
     <row r="585">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="B585" t="n">
-        <v>0.05213447820660821</v>
+        <v>0.05213447912092282</v>
       </c>
     </row>
     <row r="586">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0.05086582629642338</v>
+        <v>0.05086582578262312</v>
       </c>
     </row>
     <row r="587">
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="B587" t="n">
-        <v>0.05051245358192136</v>
+        <v>0.0505124531551784</v>
       </c>
     </row>
     <row r="588">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="B588" t="n">
-        <v>0.04998049914423121</v>
+        <v>0.04998049809284955</v>
       </c>
     </row>
     <row r="589">
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>0.04927545685374346</v>
+        <v>0.04927545653712439</v>
       </c>
     </row>
     <row r="590">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0.04802298103006951</v>
+        <v>0.04802298140477092</v>
       </c>
     </row>
     <row r="591">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>0.04793405361573983</v>
+        <v>0.04793405322427768</v>
       </c>
     </row>
     <row r="592">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0.04720806308615999</v>
+        <v>0.04720806312418527</v>
       </c>
     </row>
     <row r="593">
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0.04698695399679537</v>
+        <v>0.04698695448767316</v>
       </c>
     </row>
     <row r="594">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="B594" t="n">
-        <v>0.04637916406823549</v>
+        <v>0.04637916274152504</v>
       </c>
     </row>
     <row r="595">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0.04568961017741301</v>
+        <v>0.04568961101891463</v>
       </c>
     </row>
     <row r="596">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0.0453166568150241</v>
+        <v>0.04531665691833658</v>
       </c>
     </row>
     <row r="597">
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="B597" t="n">
-        <v>0.04484323276065707</v>
+        <v>0.04484323347634703</v>
       </c>
     </row>
     <row r="598">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="B598" t="n">
-        <v>0.04470251041112278</v>
+        <v>0.04470251254751736</v>
       </c>
     </row>
     <row r="599">
@@ -6422,7 +6422,7 @@
         </is>
       </c>
       <c r="B599" t="n">
-        <v>0.04447989716816635</v>
+        <v>0.04447989890278112</v>
       </c>
     </row>
     <row r="600">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="B600" t="n">
-        <v>0.0442641494317727</v>
+        <v>0.04426414914470951</v>
       </c>
     </row>
     <row r="601">
@@ -6442,7 +6442,7 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>0.0442078240546086</v>
+        <v>0.04420782354450335</v>
       </c>
     </row>
     <row r="602">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="B602" t="n">
-        <v>0.0440806167021894</v>
+        <v>0.04408061689038421</v>
       </c>
     </row>
     <row r="603">
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="B603" t="n">
-        <v>0.04377422161437015</v>
+        <v>0.0437742216124766</v>
       </c>
     </row>
     <row r="604">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0.04299197107950364</v>
+        <v>0.04299197102596413</v>
       </c>
     </row>
     <row r="605">
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="B605" t="n">
-        <v>0.04245041199044056</v>
+        <v>0.04245041156343692</v>
       </c>
     </row>
     <row r="606">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="B606" t="n">
-        <v>0.04160477088797624</v>
+        <v>0.04160477083324191</v>
       </c>
     </row>
     <row r="607">
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>0.04127498957241594</v>
+        <v>0.04127498900952513</v>
       </c>
     </row>
     <row r="608">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>0.04010499356949863</v>
+        <v>0.04010499503245379</v>
       </c>
     </row>
     <row r="609">
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="B609" t="n">
-        <v>0.03997232768192296</v>
+        <v>0.03997232767883297</v>
       </c>
     </row>
     <row r="610">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="B610" t="n">
-        <v>0.03946088518770299</v>
+        <v>0.03946088493580156</v>
       </c>
     </row>
     <row r="611">
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="B611" t="n">
-        <v>0.03924743706426938</v>
+        <v>0.03924743675502257</v>
       </c>
     </row>
     <row r="612">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="B612" t="n">
-        <v>0.03876727519656116</v>
+        <v>0.03876727321650005</v>
       </c>
     </row>
     <row r="613">
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0.0371453546711128</v>
+        <v>0.03714535529830545</v>
       </c>
     </row>
     <row r="614">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="B614" t="n">
-        <v>0.03699344582757285</v>
+        <v>0.03699344565383821</v>
       </c>
     </row>
     <row r="615">
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="B615" t="n">
-        <v>0.03698025269775423</v>
+        <v>0.03698025443813195</v>
       </c>
     </row>
     <row r="616">
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="B616" t="n">
-        <v>0.03670285900682711</v>
+        <v>0.03670285937451414</v>
       </c>
     </row>
     <row r="617">
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="B617" t="n">
-        <v>0.03628057404290288</v>
+        <v>0.03628057409748619</v>
       </c>
     </row>
     <row r="618">
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="B618" t="n">
-        <v>0.03605220845388367</v>
+        <v>0.03605220826201581</v>
       </c>
     </row>
     <row r="619">
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="B619" t="n">
-        <v>0.03576809812615522</v>
+        <v>0.03576809808933624</v>
       </c>
     </row>
     <row r="620">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="B620" t="n">
-        <v>0.03568750407048258</v>
+        <v>0.03568750369914588</v>
       </c>
     </row>
     <row r="621">
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="B621" t="n">
-        <v>0.03490411466265341</v>
+        <v>0.03490411494721808</v>
       </c>
     </row>
     <row r="622">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="B622" t="n">
-        <v>0.03428068505966426</v>
+        <v>0.03428068557103896</v>
       </c>
     </row>
     <row r="623">
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="B623" t="n">
-        <v>0.03377414673820213</v>
+        <v>0.03377414631756175</v>
       </c>
     </row>
     <row r="624">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="B624" t="n">
-        <v>0.03175885782641473</v>
+        <v>0.03175885794147515</v>
       </c>
     </row>
     <row r="625">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="B625" t="n">
-        <v>0.03149957668997475</v>
+        <v>0.03149957680662536</v>
       </c>
     </row>
     <row r="626">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="B626" t="n">
-        <v>0.03067578680309574</v>
+        <v>0.03067578688535372</v>
       </c>
     </row>
     <row r="627">
@@ -6702,7 +6702,7 @@
         </is>
       </c>
       <c r="B627" t="n">
-        <v>0.02884918294817659</v>
+        <v>0.0288491825727151</v>
       </c>
     </row>
     <row r="628">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="B628" t="n">
-        <v>0.02876947589477352</v>
+        <v>0.02876947706597717</v>
       </c>
     </row>
     <row r="629">
@@ -6722,7 +6722,7 @@
         </is>
       </c>
       <c r="B629" t="n">
-        <v>0.02870332198681299</v>
+        <v>0.02870332150445535</v>
       </c>
     </row>
     <row r="630">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="B630" t="n">
-        <v>0.02777914010594651</v>
+        <v>0.02777913928872707</v>
       </c>
     </row>
     <row r="631">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="B631" t="n">
-        <v>0.02674831167351306</v>
+        <v>0.02674831237220672</v>
       </c>
     </row>
     <row r="632">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="B632" t="n">
-        <v>0.02637586150999467</v>
+        <v>0.02637586193700705</v>
       </c>
     </row>
     <row r="633">
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="B633" t="n">
-        <v>0.02592015739194348</v>
+        <v>0.02592015672368241</v>
       </c>
     </row>
     <row r="634">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="B634" t="n">
-        <v>0.02575080531297833</v>
+        <v>0.02575080469107784</v>
       </c>
     </row>
     <row r="635">
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="B635" t="n">
-        <v>0.02570116841350828</v>
+        <v>0.02570116992306766</v>
       </c>
     </row>
     <row r="636">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>0.02544196428189575</v>
+        <v>0.02544196360189802</v>
       </c>
     </row>
     <row r="637">
@@ -6802,7 +6802,7 @@
         </is>
       </c>
       <c r="B637" t="n">
-        <v>0.02512763456277986</v>
+        <v>0.02512763421860817</v>
       </c>
     </row>
     <row r="638">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="B638" t="n">
-        <v>0.02509952861672647</v>
+        <v>0.02509952792094066</v>
       </c>
     </row>
     <row r="639">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="B639" t="n">
-        <v>0.02401299145583188</v>
+        <v>0.02401299180766441</v>
       </c>
     </row>
     <row r="640">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B640" t="n">
-        <v>0.02393899851563317</v>
+        <v>0.02393900024466654</v>
       </c>
     </row>
     <row r="641">
@@ -6842,7 +6842,7 @@
         </is>
       </c>
       <c r="B641" t="n">
-        <v>0.02390467858186715</v>
+        <v>0.02390467846757485</v>
       </c>
     </row>
     <row r="642">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0.02374629738142091</v>
+        <v>0.02374629645825659</v>
       </c>
     </row>
     <row r="643">
@@ -6862,7 +6862,7 @@
         </is>
       </c>
       <c r="B643" t="n">
-        <v>0.02290420774389393</v>
+        <v>0.02290420704519035</v>
       </c>
     </row>
     <row r="644">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="B644" t="n">
-        <v>0.02286761922412763</v>
+        <v>0.02286761950696184</v>
       </c>
     </row>
     <row r="645">
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="B645" t="n">
-        <v>0.02236634847775962</v>
+        <v>0.02236634540456566</v>
       </c>
     </row>
     <row r="646">
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="B646" t="n">
-        <v>0.02178057133489345</v>
+        <v>0.02178057062393146</v>
       </c>
     </row>
     <row r="647">
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="B647" t="n">
-        <v>0.02150227160753239</v>
+        <v>0.02150227121890479</v>
       </c>
     </row>
     <row r="648">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="B648" t="n">
-        <v>0.02100740232856244</v>
+        <v>0.02100740257691136</v>
       </c>
     </row>
     <row r="649">
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="B649" t="n">
-        <v>0.02092303964143952</v>
+        <v>0.02092303976698063</v>
       </c>
     </row>
     <row r="650">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="B650" t="n">
-        <v>0.02091518406954796</v>
+        <v>0.02091518375597009</v>
       </c>
     </row>
     <row r="651">
@@ -6942,7 +6942,7 @@
         </is>
       </c>
       <c r="B651" t="n">
-        <v>0.02088830789377882</v>
+        <v>0.02088830768210297</v>
       </c>
     </row>
     <row r="652">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="B652" t="n">
-        <v>0.02042525523735097</v>
+        <v>0.0204252556042135</v>
       </c>
     </row>
     <row r="653">
@@ -6962,7 +6962,7 @@
         </is>
       </c>
       <c r="B653" t="n">
-        <v>0.02020668162534917</v>
+        <v>0.02020668267464976</v>
       </c>
     </row>
     <row r="654">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="B654" t="n">
-        <v>0.02005938219679853</v>
+        <v>0.02005938291897212</v>
       </c>
     </row>
     <row r="655">
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="B655" t="n">
-        <v>0.0200307818817722</v>
+        <v>0.02003077948393921</v>
       </c>
     </row>
     <row r="656">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B656" t="n">
-        <v>0.01982958680744583</v>
+        <v>0.01982958652776574</v>
       </c>
     </row>
     <row r="657">
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0.01965970337750162</v>
+        <v>0.01965970347954662</v>
       </c>
     </row>
     <row r="658">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="B658" t="n">
-        <v>0.01958986545165994</v>
+        <v>0.01958986513936521</v>
       </c>
     </row>
     <row r="659">
@@ -7022,7 +7022,7 @@
         </is>
       </c>
       <c r="B659" t="n">
-        <v>0.01935824337820883</v>
+        <v>0.01935824313273861</v>
       </c>
     </row>
     <row r="660">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="B660" t="n">
-        <v>0.019188736521068</v>
+        <v>0.01918873583519177</v>
       </c>
     </row>
     <row r="661">
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="B661" t="n">
-        <v>0.0191505461052082</v>
+        <v>0.01915054626615431</v>
       </c>
     </row>
     <row r="662">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="B662" t="n">
-        <v>0.0187703439824061</v>
+        <v>0.01877034407423159</v>
       </c>
     </row>
     <row r="663">
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="B663" t="n">
-        <v>0.01843427958845142</v>
+        <v>0.01843428005388437</v>
       </c>
     </row>
     <row r="664">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="B664" t="n">
-        <v>0.01777409437094581</v>
+        <v>0.01777409648073244</v>
       </c>
     </row>
     <row r="665">
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="B665" t="n">
-        <v>0.01725643423819407</v>
+        <v>0.01725643464829749</v>
       </c>
     </row>
     <row r="666">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="B666" t="n">
-        <v>0.01695099628829526</v>
+        <v>0.01695099662665987</v>
       </c>
     </row>
     <row r="667">
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="B667" t="n">
-        <v>0.01692659527087229</v>
+        <v>0.01692659552657052</v>
       </c>
     </row>
     <row r="668">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="B668" t="n">
-        <v>0.01686982538760977</v>
+        <v>0.01686982579497252</v>
       </c>
     </row>
     <row r="669">
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="B669" t="n">
-        <v>0.01684671114861908</v>
+        <v>0.01684671117502432</v>
       </c>
     </row>
     <row r="670">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="B670" t="n">
-        <v>0.01650352535496266</v>
+        <v>0.0165035255615511</v>
       </c>
     </row>
     <row r="671">
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>0.01608258876772424</v>
+        <v>0.01608258889884351</v>
       </c>
     </row>
     <row r="672">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="B672" t="n">
-        <v>0.01595466806622205</v>
+        <v>0.01595466842947811</v>
       </c>
     </row>
     <row r="673">
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="B673" t="n">
-        <v>0.01591265581272737</v>
+        <v>0.01591265749293557</v>
       </c>
     </row>
     <row r="674">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="B674" t="n">
-        <v>0.01590757390413159</v>
+        <v>0.01590757384646663</v>
       </c>
     </row>
     <row r="675">
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="B675" t="n">
-        <v>0.01571327104874473</v>
+        <v>0.0157132715730484</v>
       </c>
     </row>
     <row r="676">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="B676" t="n">
-        <v>0.01539987134006284</v>
+        <v>0.0153998712590775</v>
       </c>
     </row>
     <row r="677">
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="B677" t="n">
-        <v>0.01534116475027625</v>
+        <v>0.01534116514580196</v>
       </c>
     </row>
     <row r="678">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0.01522866711387681</v>
+        <v>0.01522866770353625</v>
       </c>
     </row>
     <row r="679">
@@ -7222,7 +7222,7 @@
         </is>
       </c>
       <c r="B679" t="n">
-        <v>0.0149429507243945</v>
+        <v>0.01494295083398806</v>
       </c>
     </row>
     <row r="680">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="B680" t="n">
-        <v>0.0147301414260755</v>
+        <v>0.01473014245735456</v>
       </c>
     </row>
     <row r="681">
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="B681" t="n">
-        <v>0.01436918688855657</v>
+        <v>0.01436918640341621</v>
       </c>
     </row>
     <row r="682">
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="B682" t="n">
-        <v>0.01412400097064083</v>
+        <v>0.01412400089100192</v>
       </c>
     </row>
     <row r="683">
@@ -7262,7 +7262,7 @@
         </is>
       </c>
       <c r="B683" t="n">
-        <v>0.01358647616795854</v>
+        <v>0.0135864762049178</v>
       </c>
     </row>
     <row r="684">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="B684" t="n">
-        <v>0.01222761788935654</v>
+        <v>0.01222761742177068</v>
       </c>
     </row>
     <row r="685">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0.01211223750391659</v>
+        <v>0.01211223808789751</v>
       </c>
     </row>
     <row r="686">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="B686" t="n">
-        <v>0.01207370701356465</v>
+        <v>0.01207370675860523</v>
       </c>
     </row>
     <row r="687">
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="B687" t="n">
-        <v>0.01206664139630356</v>
+        <v>0.01206664211503487</v>
       </c>
     </row>
     <row r="688">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="B688" t="n">
-        <v>0.01153106809627591</v>
+        <v>0.01153106795530684</v>
       </c>
     </row>
     <row r="689">
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="B689" t="n">
-        <v>0.01151309890511723</v>
+        <v>0.01151309893774488</v>
       </c>
     </row>
     <row r="690">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="B690" t="n">
-        <v>0.01143260182143324</v>
+        <v>0.01143260223985341</v>
       </c>
     </row>
     <row r="691">
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="B691" t="n">
-        <v>0.01127532510928208</v>
+        <v>0.01127532566991476</v>
       </c>
     </row>
     <row r="692">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="B692" t="n">
-        <v>0.01094516515043219</v>
+        <v>0.01094516524194598</v>
       </c>
     </row>
     <row r="693">
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="B693" t="n">
-        <v>0.01045912934164928</v>
+        <v>0.01045912985085771</v>
       </c>
     </row>
     <row r="694">
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="B694" t="n">
-        <v>0.01044000568530845</v>
+        <v>0.01044000704269575</v>
       </c>
     </row>
     <row r="695">
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="B695" t="n">
-        <v>0.01034675767516496</v>
+        <v>0.0103467579257073</v>
       </c>
     </row>
     <row r="696">
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="B696" t="n">
-        <v>0.00983619549079384</v>
+        <v>0.009836195905356651</v>
       </c>
     </row>
     <row r="697">
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="B697" t="n">
-        <v>0.009501383637363938</v>
+        <v>0.009501381984331462</v>
       </c>
     </row>
     <row r="698">
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="B698" t="n">
-        <v>0.009495252834171637</v>
+        <v>0.009495253274681528</v>
       </c>
     </row>
     <row r="699">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="B699" t="n">
-        <v>0.009408814187344528</v>
+        <v>0.009408813966896667</v>
       </c>
     </row>
     <row r="700">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="B700" t="n">
-        <v>0.009020084176352741</v>
+        <v>0.0090200841561256</v>
       </c>
     </row>
     <row r="701">
@@ -7442,7 +7442,7 @@
         </is>
       </c>
       <c r="B701" t="n">
-        <v>0.008804935133608296</v>
+        <v>0.008804935194462456</v>
       </c>
     </row>
     <row r="702">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="B702" t="n">
-        <v>0.008771137717809435</v>
+        <v>0.008771138195033308</v>
       </c>
     </row>
     <row r="703">
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="B703" t="n">
-        <v>0.008593374046882301</v>
+        <v>0.008593374565496926</v>
       </c>
     </row>
     <row r="704">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="B704" t="n">
-        <v>0.007918341395802577</v>
+        <v>0.007918341639907572</v>
       </c>
     </row>
     <row r="705">
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="B705" t="n">
-        <v>0.007559158397537034</v>
+        <v>0.007559158823901139</v>
       </c>
     </row>
     <row r="706">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0.006921046295363846</v>
+        <v>0.006921046681204937</v>
       </c>
     </row>
     <row r="707">
@@ -7502,7 +7502,7 @@
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0.006772313611405934</v>
+        <v>0.006772313200679537</v>
       </c>
     </row>
     <row r="708">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0.006490046300883456</v>
+        <v>0.006490046118084607</v>
       </c>
     </row>
     <row r="709">
@@ -7522,7 +7522,7 @@
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0.00646412238253993</v>
+        <v>0.006464122200740518</v>
       </c>
     </row>
     <row r="710">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="B710" t="n">
-        <v>0.006147039275851307</v>
+        <v>0.006147039586672736</v>
       </c>
     </row>
     <row r="711">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="B711" t="n">
-        <v>0.006036204558363002</v>
+        <v>0.006036204521728433</v>
       </c>
     </row>
     <row r="712">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="B712" t="n">
-        <v>0.005983670828176411</v>
+        <v>0.00598367069304151</v>
       </c>
     </row>
     <row r="713">
@@ -7562,7 +7562,7 @@
         </is>
       </c>
       <c r="B713" t="n">
-        <v>0.00592789596243032</v>
+        <v>0.005927896103147565</v>
       </c>
     </row>
     <row r="714">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="B714" t="n">
-        <v>0.005717339549717497</v>
+        <v>0.005717339768703483</v>
       </c>
     </row>
     <row r="715">
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0.005699909931003019</v>
+        <v>0.005699910303396353</v>
       </c>
     </row>
     <row r="716">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="B716" t="n">
-        <v>0.005344842497884621</v>
+        <v>0.005344842186540762</v>
       </c>
     </row>
     <row r="717">
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0.005226876810590933</v>
+        <v>0.005226877170495804</v>
       </c>
     </row>
     <row r="718">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="B718" t="n">
-        <v>0.0051404615800877</v>
+        <v>0.005140461891477576</v>
       </c>
     </row>
     <row r="719">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0.005116436072564177</v>
+        <v>0.005116435979424165</v>
       </c>
     </row>
     <row r="720">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="B720" t="n">
-        <v>0.004567276823142171</v>
+        <v>0.004567277194892672</v>
       </c>
     </row>
     <row r="721">
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="B721" t="n">
-        <v>0.004485671712869375</v>
+        <v>0.004485672210281088</v>
       </c>
     </row>
     <row r="722">
@@ -7652,7 +7652,7 @@
         </is>
       </c>
       <c r="B722" t="n">
-        <v>0.004463663023654943</v>
+        <v>0.004463663057805644</v>
       </c>
     </row>
     <row r="723">
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="B723" t="n">
-        <v>0.004462606417271962</v>
+        <v>0.004462606426830924</v>
       </c>
     </row>
     <row r="724">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="B724" t="n">
-        <v>0.004182222483808755</v>
+        <v>0.00418222249642853</v>
       </c>
     </row>
     <row r="725">
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="B725" t="n">
-        <v>0.004009167207070862</v>
+        <v>0.004009167023661493</v>
       </c>
     </row>
     <row r="726">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="B726" t="n">
-        <v>0.003869230541680759</v>
+        <v>0.003869231777651646</v>
       </c>
     </row>
     <row r="727">
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="B727" t="n">
-        <v>0.003720723353014451</v>
+        <v>0.003720724002435882</v>
       </c>
     </row>
     <row r="728">
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="B728" t="n">
-        <v>0.003623064878005769</v>
+        <v>0.003623064682853734</v>
       </c>
     </row>
     <row r="729">
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="B729" t="n">
-        <v>0.003599373982253498</v>
+        <v>0.003599373510180305</v>
       </c>
     </row>
     <row r="730">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="B730" t="n">
-        <v>0.003462950654187465</v>
+        <v>0.003462950568403018</v>
       </c>
     </row>
     <row r="731">
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="B731" t="n">
-        <v>0.003443396797050868</v>
+        <v>0.003443396529470016</v>
       </c>
     </row>
     <row r="732">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="B732" t="n">
-        <v>0.003321719547216943</v>
+        <v>0.003321719441975001</v>
       </c>
     </row>
     <row r="733">
@@ -7762,7 +7762,7 @@
         </is>
       </c>
       <c r="B733" t="n">
-        <v>0.003263807590893814</v>
+        <v>0.003263806773577912</v>
       </c>
     </row>
     <row r="734">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="B734" t="n">
-        <v>0.003242582872275502</v>
+        <v>0.003242582747640077</v>
       </c>
     </row>
     <row r="735">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B735" t="n">
-        <v>0.003101712111483439</v>
+        <v>0.003101712387724827</v>
       </c>
     </row>
     <row r="736">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="B736" t="n">
-        <v>0.002909343318223125</v>
+        <v>0.002909343652775485</v>
       </c>
     </row>
     <row r="737">
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="B737" t="n">
-        <v>0.002740017970451326</v>
+        <v>0.002740018376377447</v>
       </c>
     </row>
     <row r="738">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="B738" t="n">
-        <v>0.00238208270189116</v>
+        <v>0.002382082732895625</v>
       </c>
     </row>
     <row r="739">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="B739" t="n">
-        <v>0.002071581005099295</v>
+        <v>0.002071581054665512</v>
       </c>
     </row>
     <row r="740">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="B740" t="n">
-        <v>0.001792294804046139</v>
+        <v>0.00179229435781778</v>
       </c>
     </row>
     <row r="741">
@@ -7842,7 +7842,7 @@
         </is>
       </c>
       <c r="B741" t="n">
-        <v>0.001685281888782577</v>
+        <v>0.001685281976948481</v>
       </c>
     </row>
     <row r="742">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="B742" t="n">
-        <v>0.001576234261412676</v>
+        <v>0.001576234486710313</v>
       </c>
     </row>
     <row r="743">
@@ -7862,7 +7862,7 @@
         </is>
       </c>
       <c r="B743" t="n">
-        <v>0.001512703855955491</v>
+        <v>0.001512703829572967</v>
       </c>
     </row>
     <row r="744">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="B744" t="n">
-        <v>0.001404259668077597</v>
+        <v>0.001404259647393275</v>
       </c>
     </row>
     <row r="745">
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="B745" t="n">
-        <v>0.001293895002137002</v>
+        <v>0.00129389496519808</v>
       </c>
     </row>
     <row r="746">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="B746" t="n">
-        <v>0.001234086724294738</v>
+        <v>0.001234086366983409</v>
       </c>
     </row>
     <row r="747">
@@ -7902,7 +7902,7 @@
         </is>
       </c>
       <c r="B747" t="n">
-        <v>0.001191508930695829</v>
+        <v>0.001191508892001171</v>
       </c>
     </row>
     <row r="748">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="B748" t="n">
-        <v>0.001076966988308094</v>
+        <v>0.001076967033242973</v>
       </c>
     </row>
     <row r="749">
@@ -7922,7 +7922,7 @@
         </is>
       </c>
       <c r="B749" t="n">
-        <v>0.001042176316658389</v>
+        <v>0.001042176197155592</v>
       </c>
     </row>
     <row r="750">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="B750" t="n">
-        <v>0.001026885916527184</v>
+        <v>0.001026885998599645</v>
       </c>
     </row>
     <row r="751">
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="B751" t="n">
-        <v>0.0009615387374910232</v>
+        <v>0.0009615386702642481</v>
       </c>
     </row>
     <row r="752">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="B752" t="n">
-        <v>0.0008660448267524241</v>
+        <v>0.0008660446800505463</v>
       </c>
     </row>
     <row r="753">
@@ -7962,7 +7962,7 @@
         </is>
       </c>
       <c r="B753" t="n">
-        <v>0.0007779188867375078</v>
+        <v>0.0007779188274756696</v>
       </c>
     </row>
     <row r="754">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="B754" t="n">
-        <v>0.0006795979381452936</v>
+        <v>0.000679597938937241</v>
       </c>
     </row>
     <row r="755">
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="B755" t="n">
-        <v>0.0006638664681279989</v>
+        <v>0.0006638664345374064</v>
       </c>
     </row>
     <row r="756">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="B756" t="n">
-        <v>0.0006542408137226535</v>
+        <v>0.0006542407771709782</v>
       </c>
     </row>
     <row r="757">
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="B757" t="n">
-        <v>0.0005926563392504117</v>
+        <v>0.0005926563286811939</v>
       </c>
     </row>
     <row r="758">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="B758" t="n">
-        <v>0.0005616080089957989</v>
+        <v>0.0005616081622970725</v>
       </c>
     </row>
     <row r="759">
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="B759" t="n">
-        <v>0.0005357186087534397</v>
+        <v>0.0005357185600777618</v>
       </c>
     </row>
     <row r="760">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="B760" t="n">
-        <v>0.0005234602035978478</v>
+        <v>0.0005234601889294246</v>
       </c>
     </row>
     <row r="761">
@@ -8042,7 +8042,7 @@
         </is>
       </c>
       <c r="B761" t="n">
-        <v>0.0004815372928380896</v>
+        <v>0.0004815373943486077</v>
       </c>
     </row>
     <row r="762">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="B762" t="n">
-        <v>0.000449072703913263</v>
+        <v>0.0004490727544388899</v>
       </c>
     </row>
     <row r="763">
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="B763" t="n">
-        <v>0.000448690663154513</v>
+        <v>0.0004486907749532636</v>
       </c>
     </row>
     <row r="764">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="B764" t="n">
-        <v>0.0004347397887800746</v>
+        <v>0.0004347397909266088</v>
       </c>
     </row>
     <row r="765">
@@ -8082,7 +8082,7 @@
         </is>
       </c>
       <c r="B765" t="n">
-        <v>0.0004031883101897202</v>
+        <v>0.0004031883010548829</v>
       </c>
     </row>
     <row r="766">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="B766" t="n">
-        <v>0.0003604611268233448</v>
+        <v>0.0003604611475018836</v>
       </c>
     </row>
     <row r="767">
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="B767" t="n">
-        <v>0.0003499230096641945</v>
+        <v>0.0003499229660713438</v>
       </c>
     </row>
     <row r="768">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="B768" t="n">
-        <v>0.0003249227861944828</v>
+        <v>0.0003249227703734426</v>
       </c>
     </row>
     <row r="769">
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="B769" t="n">
-        <v>0.0003220427327374825</v>
+        <v>0.0003220427094904754</v>
       </c>
     </row>
     <row r="770">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="B770" t="n">
-        <v>0.0003126749224827136</v>
+        <v>0.0003126749169114459</v>
       </c>
     </row>
     <row r="771">
@@ -8142,7 +8142,7 @@
         </is>
       </c>
       <c r="B771" t="n">
-        <v>0.0002790363243165528</v>
+        <v>0.000279036233607916</v>
       </c>
     </row>
     <row r="772">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="B772" t="n">
-        <v>0.0002723735852940233</v>
+        <v>0.0002723735824578412</v>
       </c>
     </row>
     <row r="773">
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="B773" t="n">
-        <v>0.0002631620112470495</v>
+        <v>0.0002631620311461651</v>
       </c>
     </row>
     <row r="774">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="B774" t="n">
-        <v>0.000255936402439339</v>
+        <v>0.0002559363115867459</v>
       </c>
     </row>
     <row r="775">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B775" t="n">
-        <v>0.0002556976756228824</v>
+        <v>0.0002556976436095629</v>
       </c>
     </row>
     <row r="776">
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="B776" t="n">
-        <v>0.0002523400913490665</v>
+        <v>0.0002523400833232958</v>
       </c>
     </row>
     <row r="777">
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="B777" t="n">
-        <v>0.0002379209889337528</v>
+        <v>0.0002379211792969426</v>
       </c>
     </row>
     <row r="778">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="B778" t="n">
-        <v>0.0001900107598982107</v>
+        <v>0.000190010766574534</v>
       </c>
     </row>
     <row r="779">
@@ -8222,7 +8222,7 @@
         </is>
       </c>
       <c r="B779" t="n">
-        <v>0.0001745342468090168</v>
+        <v>0.0001745342375784574</v>
       </c>
     </row>
     <row r="780">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="B780" t="n">
-        <v>0.0001435885738096265</v>
+        <v>0.0001435885961054839</v>
       </c>
     </row>
     <row r="781">
@@ -8242,7 +8242,7 @@
         </is>
       </c>
       <c r="B781" t="n">
-        <v>0.0001269324545439995</v>
+        <v>0.0001269324469833451</v>
       </c>
     </row>
     <row r="782">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="B782" t="n">
-        <v>0.0001127007029029135</v>
+        <v>0.0001127006907158618</v>
       </c>
     </row>
     <row r="783">
@@ -8262,7 +8262,7 @@
         </is>
       </c>
       <c r="B783" t="n">
-        <v>9.855791720613175e-05</v>
+        <v>9.855788399403036e-05</v>
       </c>
     </row>
     <row r="784">
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="B784" t="n">
-        <v>9.085934370169969e-05</v>
+        <v>9.085931246315205e-05</v>
       </c>
     </row>
     <row r="785">
@@ -8282,7 +8282,7 @@
         </is>
       </c>
       <c r="B785" t="n">
-        <v>7.331460313410854e-05</v>
+        <v>7.331460322867558e-05</v>
       </c>
     </row>
     <row r="786">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="B786" t="n">
-        <v>7.030111243159096e-05</v>
+        <v>7.030111834886791e-05</v>
       </c>
     </row>
     <row r="787">
@@ -8302,7 +8302,7 @@
         </is>
       </c>
       <c r="B787" t="n">
-        <v>6.342849059262625e-05</v>
+        <v>6.342849951354075e-05</v>
       </c>
     </row>
     <row r="788">
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="B788" t="n">
-        <v>4.990956118896487e-05</v>
+        <v>4.990960619720444e-05</v>
       </c>
     </row>
     <row r="789">
@@ -8322,7 +8322,7 @@
         </is>
       </c>
       <c r="B789" t="n">
-        <v>4.18426415871469e-05</v>
+        <v>4.184265340046254e-05</v>
       </c>
     </row>
     <row r="790">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="B790" t="n">
-        <v>2.753270447197153e-05</v>
+        <v>2.753272574443439e-05</v>
       </c>
     </row>
     <row r="791">
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="B791" t="n">
-        <v>2.697947414846527e-05</v>
+        <v>2.697948066586741e-05</v>
       </c>
     </row>
     <row r="792">
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="B792" t="n">
-        <v>1.403177389267182e-05</v>
+        <v>1.403177709679607e-05</v>
       </c>
     </row>
     <row r="793">
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="B793" t="n">
-        <v>2.547031540180687e-06</v>
+        <v>2.54702885940383e-06</v>
       </c>
     </row>
     <row r="794">
@@ -8372,7 +8372,7 @@
         </is>
       </c>
       <c r="B794" t="n">
-        <v>4.674171684118915e-08</v>
+        <v>4.67416458235374e-08</v>
       </c>
     </row>
     <row r="795">
